--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="125">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,148 +55,148 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>join</t>
@@ -754,10 +754,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
         <v>0.96875</v>
@@ -1065,28 +1065,28 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1230769230769231</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>114</v>
+        <v>488</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1111,32 +1111,8 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.05426356589147287</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>488</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1162,7 +1138,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.9444444444444444</v>
@@ -1188,7 +1164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
         <v>0.9333333333333333</v>
@@ -1214,7 +1190,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.9333333333333333</v>
@@ -1240,7 +1216,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>0.9166666666666666</v>
@@ -1266,7 +1242,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
         <v>0.9090909090909091</v>
@@ -1292,7 +1268,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
         <v>0.905982905982906</v>
@@ -1318,7 +1294,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>0.8899082568807339</v>
@@ -1344,7 +1320,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0.889763779527559</v>
@@ -1370,7 +1346,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.8823529411764706</v>
@@ -1396,7 +1372,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
         <v>0.8666666666666667</v>
@@ -1422,7 +1398,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.8518518518518519</v>
@@ -1448,7 +1424,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
         <v>0.85</v>
@@ -1474,7 +1450,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
         <v>0.8461538461538461</v>
@@ -1500,7 +1476,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
         <v>0.84</v>
@@ -1526,7 +1502,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>0.8245614035087719</v>
@@ -1552,7 +1528,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
         <v>0.8214285714285714</v>
@@ -1578,7 +1554,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
         <v>0.8141025641025641</v>
@@ -1604,7 +1580,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>0.8085106382978723</v>
@@ -1630,7 +1606,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>0.8014184397163121</v>
@@ -1656,7 +1632,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>0.7936507936507936</v>
@@ -1682,7 +1658,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
         <v>0.7826086956521739</v>
@@ -1708,7 +1684,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>0.7777777777777778</v>
@@ -1734,7 +1710,7 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>0.7727272727272727</v>
@@ -1760,59 +1736,59 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.7665198237885462</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L33">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="M33">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="N33">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O33">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.7575757575757576</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L34">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="M34">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="N34">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>0.7222222222222222</v>
@@ -1838,7 +1814,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
         <v>0.7111111111111111</v>
@@ -1864,7 +1840,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
         <v>0.6862745098039216</v>
@@ -1890,7 +1866,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
         <v>0.6825396825396826</v>
@@ -1916,7 +1892,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
         <v>0.6777777777777778</v>
@@ -1942,7 +1918,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
         <v>0.6608391608391608</v>
@@ -1968,7 +1944,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K41">
         <v>0.6521739130434783</v>
@@ -1994,7 +1970,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K42">
         <v>0.6521739130434783</v>
@@ -2020,7 +1996,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43">
         <v>0.6515151515151515</v>
@@ -2046,16 +2022,16 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.6481481481481481</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L44">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>0.93</v>
@@ -2067,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2081,13 +2057,13 @@
         <v>14</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O45">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
@@ -2101,25 +2077,25 @@
         <v>58</v>
       </c>
       <c r="K46">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O46">
-        <v>0.12</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2133,13 +2109,13 @@
         <v>17</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N47">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O47">
-        <v>0.1899999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
@@ -2153,25 +2129,25 @@
         <v>60</v>
       </c>
       <c r="K48">
-        <v>0.6296296296296297</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="10:17">
